--- a/Sokoban_AStar_GreedySearch/report.xlsx
+++ b/Sokoban_AStar_GreedySearch/report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\CS106\Sokoban_AStar_GreedySearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F739C91-0E6A-416F-9AC6-A29710630C80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5B44C9-1582-4797-85B7-C3CFAB3179C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4290" yWindow="660" windowWidth="14400" windowHeight="8670" xr2:uid="{3297EE2C-9D63-4E56-AD46-604BD4E575B8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>Level 1</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>0.20</t>
+  </si>
+  <si>
+    <t>Too long (more than 5 min)</t>
   </si>
 </sst>
 </file>
@@ -508,7 +511,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -610,10 +613,18 @@
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
+      <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3">
+        <v>142.59</v>
+      </c>
+      <c r="E6" s="4">
+        <v>146.13999999999999</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
